--- a/data/income_statement/3digits/total/742_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/742_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>742-Photographic activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>742-Photographic activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>131493.5002</v>
@@ -956,37 +862,42 @@
         <v>169306.43178</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>198600.96754</v>
+        <v>198958.53783</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>225221.53846</v>
+        <v>225665.27614</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>244972.54064</v>
+        <v>245428.34052</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>263260.20385</v>
+        <v>268024.93288</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>336626.01917</v>
+        <v>337917.2014</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>336693.94659</v>
+        <v>336734.8021</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>375040.82136</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>500834.86395</v>
+        <v>503573.05158</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>414692.72402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>779570.7856599999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>811326.189</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>118215.11494</v>
@@ -995,37 +906,42 @@
         <v>150709.93503</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>174507.99395</v>
+        <v>174865.56424</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>196905.43508</v>
+        <v>197349.17276</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>224222.83006</v>
+        <v>224678.62994</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>245980.94845</v>
+        <v>250702.15465</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>318007.60268</v>
+        <v>319297.99374</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>306544.98859</v>
+        <v>306571.85035</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>345101.2010700001</v>
+        <v>345101.20107</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>491825.03227</v>
+        <v>494556.97214</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>393056.98803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>737424.1100399999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>747636.09</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>10370.83059</v>
@@ -1058,13 +974,18 @@
         <v>4049.3606</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10687.9499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10708.8248</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9566.065000000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2907.55467</v>
@@ -1082,34 +1003,39 @@
         <v>3224.05675</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2841.12276</v>
+        <v>2884.64559</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4733.69193</v>
+        <v>4734.483099999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4719.13116</v>
+        <v>4733.12491</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4871.89064</v>
+        <v>4871.890640000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4960.47108</v>
+        <v>4966.71884</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10947.78609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31437.85082</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>54124.034</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>723.98653</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>674.4937699999999</v>
+        <v>674.49377</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1297.46499</v>
@@ -1121,28 +1047,33 @@
         <v>1749.74737</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2264.628270000001</v>
+        <v>2265.62827</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1557.91511</v>
+        <v>1558.66511</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>1032.63558</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>939.7491199999999</v>
+        <v>939.7491199999998</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>11845.42506</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2418.47506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23755.00441000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>12097.796</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>444.45815</v>
@@ -1151,7 +1082,7 @@
         <v>456.17207</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>676.9872200000001</v>
+        <v>676.98722</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>907.0763000000001</v>
@@ -1160,28 +1091,33 @@
         <v>1144.82656</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2047.3613</v>
+        <v>2048.3613</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>530.4531699999999</v>
+        <v>531.2031699999999</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>943.67179</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>806.3224900000001</v>
+        <v>806.32249</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>11805.31076</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2308.41356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2324.41356</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8044.634</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>274.65564</v>
@@ -1214,13 +1150,18 @@
         <v>29.95256</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>24.9983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21345.52765</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4029.783</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4.872739999999999</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>85.06319999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>23.379</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>130769.51367</v>
@@ -1268,37 +1214,42 @@
         <v>168631.93801</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>197303.50255</v>
+        <v>197661.07284</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>223794.99402</v>
+        <v>224238.7317</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>243222.79327</v>
+        <v>243678.59315</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>260995.57558</v>
+        <v>265759.30461</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>335068.10406</v>
+        <v>336358.53629</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>335661.3110100001</v>
+        <v>335702.16652</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>374101.07224</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>488989.43889</v>
+        <v>491727.62652</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>412274.2489600001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>755815.78125</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>799228.393</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>91651.99456000001</v>
@@ -1307,40 +1258,45 @@
         <v>118019.66996</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>137376.36041</v>
+        <v>137656.01261</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>161503.0305</v>
+        <v>161846.72515</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>177570.07383</v>
+        <v>177948.49421</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>188380.22235</v>
+        <v>192254.49579</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>252420.39707</v>
+        <v>253478.25208</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>257697.18838</v>
+        <v>257755.16148</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>286799.33919</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>403099.33687</v>
+        <v>405380.48266</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>316486.41662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>655701.7033299999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>706406.056</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7677.377359999999</v>
+        <v>7677.37736</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>9634.698269999999</v>
@@ -1358,25 +1314,30 @@
         <v>22532.67694</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>22366.25018</v>
+        <v>22400.68325</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>19566.03925</v>
+        <v>19606.05459</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>30395.02572</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>25617.12341</v>
+        <v>25969.74939</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21159.94867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22073.8631</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18957.066</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>43498.67737999999</v>
@@ -1385,37 +1346,42 @@
         <v>47526.19708</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>56800.91393</v>
+        <v>57080.56613</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>60095.06395999999</v>
+        <v>60398.48092</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>77878.15986</v>
+        <v>78229.21162</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>74665.88696</v>
+        <v>74972.69998</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>102623.10239</v>
+        <v>102636.03672</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>112337.62601</v>
+        <v>112355.58377</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>107140.56323</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>161656.79815</v>
+        <v>162966.79687</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>70961.98006999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>342158.29811</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>463431.166</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>39830.08055000001</v>
@@ -1430,13 +1396,13 @@
         <v>82247.82918</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>82976.26020999999</v>
+        <v>82976.26021000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>91057.51701000001</v>
+        <v>94582.34006000002</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>125987.92383</v>
+        <v>126993.96216</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>124791.25618</v>
@@ -1445,16 +1411,21 @@
         <v>148149.70713</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>214194.44823</v>
+        <v>214812.96932</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>219007.37037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>286112.42461</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>222721.308</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>645.85927</v>
@@ -1466,16 +1437,16 @@
         <v>81.33570000000002</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>70.24532000000001</v>
+        <v>110.52301</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>877.63027</v>
+        <v>904.99889</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>124.14144</v>
+        <v>166.77881</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1443.12067</v>
+        <v>1447.56995</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1002.26694</v>
@@ -1489,50 +1460,60 @@
       <c r="M18" s="48" t="n">
         <v>5357.11751</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1296.516</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>39117.51911</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>50612.26805000001</v>
+        <v>50612.26805</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>59927.14214</v>
+        <v>60005.06023</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>62291.96352</v>
+        <v>62392.00655</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>65652.71944</v>
+        <v>65730.09894</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>72615.35322999999</v>
+        <v>73504.80881999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>82647.70699000001</v>
+        <v>82880.28421000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>77964.12263</v>
+        <v>77947.00503999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>87301.73305000001</v>
+        <v>87301.73305</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>85890.10201999999</v>
+        <v>86347.14386</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>95787.83234000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>100114.07792</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>92822.337</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>42943.98935</v>
@@ -1541,37 +1522,42 @@
         <v>52221.14655</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>59113.68217</v>
+        <v>59329.18946</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>61731.84058999999</v>
+        <v>61972.93367</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>66203.47747000001</v>
+        <v>66517.83615</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>70167.84616</v>
+        <v>70965.21866</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>77900.72492000001</v>
+        <v>78300.9335</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>78941.96722000001</v>
+        <v>78980.9172</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>85530.34982999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>99000.01865</v>
+        <v>99894.90429000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>109226.3867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>118946.66496</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>99588.247</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1604,13 +1590,18 @@
         <v>225.68552</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>18.63924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39.40645</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>64.57299999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3548.09822</v>
@@ -1619,76 +1610,86 @@
         <v>4611.09755</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5413.61028</v>
+        <v>5554.842689999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6729.630190000001</v>
+        <v>6914.96718</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6950.47177</v>
+        <v>6967.7095</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>7688.40955</v>
+        <v>8109.60643</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8833.733540000001</v>
+        <v>8846.21068</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>9687.384259999999</v>
+        <v>9703.391099999999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>12551.98481</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13516.73209</v>
+        <v>13589.52809</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17320.82892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22187.51901</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>19868.428</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>39395.89113</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>47610.04899999999</v>
+        <v>47610.049</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>53683.49501999999</v>
+        <v>53757.76990000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>54980.39302</v>
+        <v>55036.14911</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>59223.67564</v>
+        <v>59520.79659000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>62476.17549</v>
+        <v>62852.35111</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>69046.88632000001</v>
+        <v>69434.61776000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>69246.69173000001</v>
+        <v>69269.63487000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>72953.57537000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>85257.60103999999</v>
+        <v>86079.69068000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>91886.91854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>96719.7395</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>79655.246</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-3826.47024</v>
@@ -1697,37 +1698,42 @@
         <v>-1608.8785</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>813.4599700000001</v>
+        <v>675.8707700000002</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>560.1229299999997</v>
+        <v>419.0728800000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-550.7580299999998</v>
+        <v>-787.7372100000005</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2447.50707</v>
+        <v>2539.590160000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4746.98207</v>
+        <v>4579.35071</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-977.8445899999989</v>
+        <v>-1033.91216</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1771.38322</v>
+        <v>1771.383219999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-13109.91663</v>
+        <v>-13547.76043</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-13438.55436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-18832.58704</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6765.91</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1017.0728</v>
@@ -1745,28 +1751,33 @@
         <v>2139.7946</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1650.41387</v>
+        <v>1668.48442</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2687.10927</v>
+        <v>2841.08212</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3662.86279</v>
+        <v>3663.35664</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4148.64782</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>19096.3016</v>
+        <v>19099.65808</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7781.88976</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7874.10949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10465.448</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>345.384</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>73.57262</v>
@@ -1868,7 +1889,7 @@
         <v>388.11359</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>894.57193</v>
+        <v>894.5719300000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1116.37928</v>
@@ -1877,13 +1898,18 @@
         <v>1328.47367</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1139.36097</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1148.7421</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1163.676</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>129.89337</v>
@@ -1910,7 +1936,7 @@
         <v>77.66199</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>94.71423000000001</v>
+        <v>94.71423</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>78.59883000000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>428.49309</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>672.177</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>34.71666</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11.362</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>8.260260000000001</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>251.02165</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>66.232</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>356.8730699999999</v>
@@ -2012,34 +2053,39 @@
         <v>525.43074</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>726.3056099999999</v>
+        <v>726.3056100000001</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>842.77872</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>521.55183</v>
+        <v>541.1794599999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1395.24547</v>
+        <v>1396.03517</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1402.76705</v>
+        <v>1403.2609</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1432.82708</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7530.38779</v>
+        <v>7533.744269999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3965.56028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4023.36049</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6403.985</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>413.75682</v>
@@ -2132,13 +2188,13 @@
         <v>594.8973500000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>914.0842700000001</v>
+        <v>914.0842699999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>714.12879</v>
+        <v>712.5717100000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>843.0262299999999</v>
+        <v>996.2093800000001</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1278.05368</v>
@@ -2150,22 +2206,27 @@
         <v>2160.63499</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1961.35377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1986.39216</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1802.632</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>815.6528199999999</v>
+        <v>815.65282</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>911.4359000000001</v>
+        <v>911.4358999999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1331.00106</v>
+        <v>1358.15493</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>1243.30968</v>
@@ -2174,28 +2235,33 @@
         <v>1383.08922</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>737.17319</v>
+        <v>748.4233</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1639.52126</v>
+        <v>1645.7568</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1638.43352</v>
+        <v>1638.4925</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1779.72881</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4315.00153</v>
+        <v>4315.228779999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2492.9168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2563.62056</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4782.342</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>37.68052</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>71.59036999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>83.889</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>119.56</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>188.75732</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>270.659</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>33.3321</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>273.962</v>
@@ -2330,28 +2411,33 @@
         <v>767.8151899999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>496.68426</v>
+        <v>507.93437</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1286.34598</v>
+        <v>1292.58139</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1114.807</v>
+        <v>1114.86598</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1135.7261</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3903.00167</v>
+        <v>3903.22892</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1961.03606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2028.27036</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3186.444</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.03914</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>351.07906</v>
@@ -2438,10 +2534,10 @@
         <v>381.55056</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>586.74934</v>
+        <v>613.9032099999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>409.0738</v>
+        <v>409.0738000000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>429.90918</v>
@@ -2450,25 +2546,30 @@
         <v>117.4763</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>257.68293</v>
+        <v>257.68306</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>149.44954</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>541.56907</v>
+        <v>541.5690699999999</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>172.9775</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>271.53305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>275.00251</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1241.146</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1517.24888</v>
@@ -2486,28 +2587,33 @@
         <v>1898.11722</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2054.48153</v>
+        <v>2086.79835</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3630.11202</v>
+        <v>3635.85471</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4687.677390000001</v>
+        <v>4688.80001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>4674.43529</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5930.122280000001</v>
+        <v>5930.146029999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6421.95479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6626.40118</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6095.643</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1453.34623</v>
@@ -2525,28 +2631,33 @@
         <v>1793.60981</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1879.78354</v>
+        <v>1912.10036</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3469.81084</v>
+        <v>3475.55353</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4520.768050000001</v>
+        <v>4521.89067</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>4408.64122</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5700.224679999999</v>
+        <v>5700.248430000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6069.161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6273.607389999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5511.144</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>63.90264999999999</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>352.7937900000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>584.499</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-5142.299140000001</v>
@@ -2594,37 +2710,42 @@
         <v>-2401.6043</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-555.5909499999998</v>
+        <v>-720.3340200000004</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-911.5417999999999</v>
+        <v>-1052.59185</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1692.16987</v>
+        <v>-1929.14905</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1306.26622</v>
+        <v>1372.85293</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2164.45806</v>
+        <v>2138.82132</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-3641.092710000001</v>
+        <v>-3697.84803</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-534.133060000001</v>
+        <v>-534.1330599999995</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4258.73884</v>
+        <v>-4693.47716</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-14571.53619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-20148.49929</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7178.447</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1384.79014</v>
@@ -2636,34 +2757,39 @@
         <v>6089.0083</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1743.97598</v>
+        <v>1754.12855</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1450.05023</v>
+        <v>1461.8743</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1817.15565</v>
+        <v>1832.10594</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1877.81351</v>
+        <v>1881.11851</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1914.19844</v>
+        <v>1915.74552</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2653.78632</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4665.99275</v>
+        <v>4728.3565</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7573.97438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>16394.51531</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4444.78</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3.87409</v>
@@ -2696,13 +2822,18 @@
         <v>5.84911</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1.63062</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2.65398</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1.184</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1380.91605</v>
@@ -2714,34 +2845,39 @@
         <v>6076.627119999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1729.13617</v>
+        <v>1739.28874</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1399.52336</v>
+        <v>1411.34743</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1817.15565</v>
+        <v>1832.10594</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1856.0425</v>
+        <v>1859.3475</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1897.87594</v>
+        <v>1899.42302</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2653.78632</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4660.14364</v>
+        <v>4722.507390000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7572.34376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>16391.86133</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4443.596</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1048.61446</v>
@@ -2753,34 +2889,39 @@
         <v>6162.422189999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2517.34729</v>
+        <v>2522.22229</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>2096.4856</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4510.96382</v>
+        <v>4554.93046</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2503.4332</v>
+        <v>2593.5207</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6264.238579999999</v>
+        <v>6271.887890000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>4445.93521</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8292.649640000001</v>
+        <v>8481.0571</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3547.988710000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7197.135300000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4617.758</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>30.05688</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>93.47304</v>
@@ -2840,13 +2986,13 @@
         <v>91.84183999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>75.52036</v>
+        <v>78.09502999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>47.18482999999999</v>
+        <v>47.18483000000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>89.48223</v>
+        <v>89.48223000000002</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>25.0059</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>54.4783</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>131.889</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>955.14142</v>
@@ -2870,34 +3021,39 @@
         <v>6024.74657</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2363.38965</v>
+        <v>2368.26465</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>2051.77348</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4419.12198</v>
+        <v>4463.08862</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2427.91284</v>
+        <v>2515.42567</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6214.871450000001</v>
+        <v>6222.520759999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4356.452979999999</v>
+        <v>4356.45298</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8267.64374</v>
+        <v>8456.0512</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3463.45353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7112.60012</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4479.799</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-4806.12346</v>
@@ -2906,37 +3062,42 @@
         <v>-3160.98958</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-629.0048399999999</v>
+        <v>-793.7479099999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1684.91311</v>
+        <v>-1820.68559</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-2338.60524</v>
+        <v>-2563.76035</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1387.54195</v>
+        <v>-1349.97159</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1538.83837</v>
+        <v>1426.41913</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7991.132850000001</v>
+        <v>-8053.990399999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2326.281950000001</v>
+        <v>-2326.28195</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7885.39573</v>
+        <v>-8446.177759999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-10545.55052</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-10951.11928</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-7351.425</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>933.21201</v>
@@ -2951,13 +3112,13 @@
         <v>2072.67412</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2327.52335</v>
+        <v>2327.75593</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2709.45128</v>
+        <v>2738.38827</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3291.23376</v>
+        <v>3308.27417</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>3498.92662</v>
@@ -2966,52 +3127,60 @@
         <v>3498.19354</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2824.20669</v>
+        <v>2834.58321</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3559.66804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3779.8806</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4937.163</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-5739.335470000001</v>
+        <v>-5739.33547</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-4448.91611</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2399.13573</v>
+        <v>-2563.8788</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3757.58723</v>
+        <v>-3893.35971</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-4666.12859</v>
+        <v>-4891.516280000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-4096.99323</v>
+        <v>-4088.35986</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1752.39539</v>
+        <v>-1881.855039999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-11490.05947</v>
+        <v>-11552.91702</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-5824.47549</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-10709.60242</v>
+        <v>-11280.76097</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-14105.21856</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-14730.99988</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12288.588</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>843</v>
@@ -3038,34 +3210,37 @@
         <v>911</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>844</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>826</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>